--- a/trtt.xlsx
+++ b/trtt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,7 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>3/5/1966</t>
@@ -542,10 +543,33 @@
           <t>24/9/2003</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Adolf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5/8/2000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4/8/2020</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>m</t>
         </is>
       </c>
     </row>
